--- a/introductoryExamples/analysis/2-1-w7--trust.xlsx
+++ b/introductoryExamples/analysis/2-1-w7--trust.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="29">
   <si>
     <t>Time</t>
   </si>
@@ -26,9 +26,18 @@
     <t>#Rep</t>
   </si>
   <si>
+    <t>fTi</t>
+  </si>
+  <si>
+    <t>fTa</t>
+  </si>
+  <si>
     <t>only version 2 has the problem</t>
   </si>
   <si>
+    <t>NaN</t>
+  </si>
+  <si>
     <t>log4j filename:pom.xml language:java</t>
   </si>
   <si>
@@ -71,7 +80,19 @@
     <t>T</t>
   </si>
   <si>
+    <t>1.00</t>
+  </si>
+  <si>
+    <t>-1.00</t>
+  </si>
+  <si>
     <t>b</t>
+  </si>
+  <si>
+    <t>0.50</t>
+  </si>
+  <si>
+    <t>0.58</t>
   </si>
   <si>
     <t>c</t>
@@ -380,24 +401,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:L14"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="2.8984375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="63.89453125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="1.8984375" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="1.8984375" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="3.40234375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="3.40234375" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="3.40234375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="4.40234375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="3.40234375" customWidth="true" bestFit="true"/>
-    <col min="10" max="10" width="3.40234375" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="3.40234375" customWidth="true" bestFit="true"/>
-    <col min="12" max="12" width="4.40234375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="2.9296875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="65.59375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="1.9296875" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="1.9296875" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="4.421875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.421875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.4296875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="5.03125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="4.4296875" customWidth="true" bestFit="true"/>
+    <col min="10" max="10" width="5.03125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="4.4296875" customWidth="true" bestFit="true"/>
+    <col min="12" max="12" width="5.03125" customWidth="true" bestFit="true"/>
+    <col min="13" max="13" width="4.4296875" customWidth="true" bestFit="true"/>
+    <col min="14" max="14" width="5.03125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -413,51 +436,59 @@
       <c r="D1" t="s" s="1">
         <v>3</v>
       </c>
-      <c r="E1" t="s" s="12">
-        <v>16</v>
-      </c>
-      <c r="F1" s="0"/>
+      <c r="E1" t="s" s="2">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s" s="2">
+        <v>5</v>
+      </c>
       <c r="G1" t="s" s="12">
         <v>19</v>
       </c>
       <c r="H1" s="0"/>
       <c r="I1" t="s" s="12">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="J1" s="0"/>
       <c r="K1" t="s" s="12">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="L1" s="0"/>
+      <c r="M1" t="s" s="12">
+        <v>28</v>
+      </c>
+      <c r="N1" s="0"/>
     </row>
     <row r="2">
       <c r="A2" s="0"/>
       <c r="B2" s="0"/>
       <c r="C2" s="0"/>
       <c r="D2" s="0"/>
-      <c r="E2" t="s" s="13">
-        <v>17</v>
-      </c>
-      <c r="F2" t="s" s="2">
-        <v>18</v>
-      </c>
+      <c r="E2" s="0"/>
+      <c r="F2" s="0"/>
       <c r="G2" t="s" s="13">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I2" t="s" s="13">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="K2" t="s" s="13">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>18</v>
+        <v>21</v>
+      </c>
+      <c r="M2" t="s" s="13">
+        <v>20</v>
+      </c>
+      <c r="N2" t="s" s="2">
+        <v>21</v>
       </c>
     </row>
     <row r="3">
@@ -465,7 +496,7 @@
         <v>-1.0</v>
       </c>
       <c r="B3" t="s" s="11">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C3" t="n" s="0">
         <v>0.0</v>
@@ -473,29 +504,35 @@
       <c r="D3" t="n" s="0">
         <v>0.0</v>
       </c>
-      <c r="E3" t="n" s="15">
-        <v>1.0</v>
-      </c>
-      <c r="F3" t="n" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="G3" t="n" s="15">
-        <v>1.0</v>
-      </c>
-      <c r="H3" t="n" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="I3" t="n" s="15">
-        <v>1.0</v>
-      </c>
-      <c r="J3" t="n" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="K3" t="n" s="15">
-        <v>1.0</v>
-      </c>
-      <c r="L3" t="n" s="5">
-        <v>1.0</v>
+      <c r="E3" t="s" s="7">
+        <v>7</v>
+      </c>
+      <c r="F3" t="s" s="7">
+        <v>7</v>
+      </c>
+      <c r="G3" t="s" s="15">
+        <v>22</v>
+      </c>
+      <c r="H3" t="s" s="5">
+        <v>22</v>
+      </c>
+      <c r="I3" t="s" s="15">
+        <v>22</v>
+      </c>
+      <c r="J3" t="s" s="5">
+        <v>22</v>
+      </c>
+      <c r="K3" t="s" s="15">
+        <v>22</v>
+      </c>
+      <c r="L3" t="s" s="5">
+        <v>22</v>
+      </c>
+      <c r="M3" t="s" s="15">
+        <v>22</v>
+      </c>
+      <c r="N3" t="s" s="5">
+        <v>22</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +540,7 @@
         <v>1.0</v>
       </c>
       <c r="B4" t="s" s="10">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C4" t="n" s="0">
         <v>1.0</v>
@@ -511,29 +548,35 @@
       <c r="D4" t="n" s="0">
         <v>2.0</v>
       </c>
-      <c r="E4" t="n" s="15">
-        <v>1.0</v>
-      </c>
-      <c r="F4" t="n" s="6">
-        <v>-1.0</v>
-      </c>
-      <c r="G4" t="n" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="H4" t="n" s="6">
-        <v>-1.0</v>
-      </c>
-      <c r="I4" t="n" s="15">
-        <v>1.0</v>
-      </c>
-      <c r="J4" t="n" s="6">
-        <v>-1.0</v>
-      </c>
-      <c r="K4" t="n" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="L4" t="n" s="6">
-        <v>-1.0</v>
+      <c r="E4" t="s" s="7">
+        <v>7</v>
+      </c>
+      <c r="F4" t="s" s="7">
+        <v>7</v>
+      </c>
+      <c r="G4" t="s" s="15">
+        <v>22</v>
+      </c>
+      <c r="H4" t="s" s="6">
+        <v>23</v>
+      </c>
+      <c r="I4" t="s" s="15">
+        <v>25</v>
+      </c>
+      <c r="J4" t="s" s="6">
+        <v>23</v>
+      </c>
+      <c r="K4" t="s" s="15">
+        <v>22</v>
+      </c>
+      <c r="L4" t="s" s="6">
+        <v>23</v>
+      </c>
+      <c r="M4" t="s" s="15">
+        <v>25</v>
+      </c>
+      <c r="N4" t="s" s="6">
+        <v>23</v>
       </c>
     </row>
     <row r="5">
@@ -541,7 +584,7 @@
         <v>1.0</v>
       </c>
       <c r="B5" t="s" s="10">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C5" t="n" s="0">
         <v>0.0</v>
@@ -549,29 +592,35 @@
       <c r="D5" t="n" s="0">
         <v>0.0</v>
       </c>
-      <c r="E5" t="n" s="15">
-        <v>1.0</v>
-      </c>
-      <c r="F5" t="n" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="G5" t="n" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="H5" t="n" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="I5" t="n" s="15">
-        <v>1.0</v>
-      </c>
-      <c r="J5" t="n" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="K5" t="n" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="L5" t="n" s="5">
-        <v>0.5</v>
+      <c r="E5" t="s" s="7">
+        <v>7</v>
+      </c>
+      <c r="F5" t="s" s="7">
+        <v>7</v>
+      </c>
+      <c r="G5" t="s" s="15">
+        <v>22</v>
+      </c>
+      <c r="H5" t="s" s="5">
+        <v>22</v>
+      </c>
+      <c r="I5" t="s" s="15">
+        <v>25</v>
+      </c>
+      <c r="J5" t="s" s="5">
+        <v>25</v>
+      </c>
+      <c r="K5" t="s" s="15">
+        <v>22</v>
+      </c>
+      <c r="L5" t="s" s="5">
+        <v>22</v>
+      </c>
+      <c r="M5" t="s" s="15">
+        <v>25</v>
+      </c>
+      <c r="N5" t="s" s="5">
+        <v>25</v>
       </c>
     </row>
     <row r="6">
@@ -579,7 +628,7 @@
         <v>1.0</v>
       </c>
       <c r="B6" t="s" s="10">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C6" t="n" s="0">
         <v>3.0</v>
@@ -587,29 +636,35 @@
       <c r="D6" t="n" s="0">
         <v>1.0</v>
       </c>
-      <c r="E6" t="n" s="15">
-        <v>1.0</v>
-      </c>
-      <c r="F6" t="n" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="G6" t="n" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="H6" t="n" s="5">
-        <v>0.5833333134651184</v>
-      </c>
-      <c r="I6" t="n" s="15">
-        <v>1.0</v>
-      </c>
-      <c r="J6" t="n" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="K6" t="n" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="L6" t="n" s="5">
-        <v>0.5833333134651184</v>
+      <c r="E6" t="s" s="7">
+        <v>7</v>
+      </c>
+      <c r="F6" t="s" s="7">
+        <v>7</v>
+      </c>
+      <c r="G6" t="s" s="15">
+        <v>22</v>
+      </c>
+      <c r="H6" t="s" s="5">
+        <v>22</v>
+      </c>
+      <c r="I6" t="s" s="15">
+        <v>25</v>
+      </c>
+      <c r="J6" t="s" s="5">
+        <v>26</v>
+      </c>
+      <c r="K6" t="s" s="15">
+        <v>22</v>
+      </c>
+      <c r="L6" t="s" s="5">
+        <v>22</v>
+      </c>
+      <c r="M6" t="s" s="15">
+        <v>25</v>
+      </c>
+      <c r="N6" t="s" s="5">
+        <v>26</v>
       </c>
     </row>
     <row r="7">
@@ -617,7 +672,7 @@
         <v>7.0</v>
       </c>
       <c r="B7" t="s" s="10">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C7" t="n" s="0">
         <v>0.0</v>
@@ -625,29 +680,35 @@
       <c r="D7" t="n" s="0">
         <v>0.0</v>
       </c>
-      <c r="E7" t="n" s="15">
-        <v>1.0</v>
-      </c>
-      <c r="F7" t="n" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="G7" t="n" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="H7" t="n" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="I7" t="n" s="15">
-        <v>1.0</v>
-      </c>
-      <c r="J7" t="n" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="K7" t="n" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="L7" t="n" s="5">
-        <v>0.5</v>
+      <c r="E7" t="s" s="7">
+        <v>7</v>
+      </c>
+      <c r="F7" t="s" s="7">
+        <v>7</v>
+      </c>
+      <c r="G7" t="s" s="15">
+        <v>22</v>
+      </c>
+      <c r="H7" t="s" s="5">
+        <v>22</v>
+      </c>
+      <c r="I7" t="s" s="15">
+        <v>25</v>
+      </c>
+      <c r="J7" t="s" s="5">
+        <v>25</v>
+      </c>
+      <c r="K7" t="s" s="15">
+        <v>22</v>
+      </c>
+      <c r="L7" t="s" s="5">
+        <v>22</v>
+      </c>
+      <c r="M7" t="s" s="15">
+        <v>25</v>
+      </c>
+      <c r="N7" t="s" s="5">
+        <v>25</v>
       </c>
     </row>
     <row r="8">
@@ -655,7 +716,7 @@
         <v>9.0</v>
       </c>
       <c r="B8" t="s" s="10">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C8" t="n" s="0">
         <v>1.0</v>
@@ -663,29 +724,35 @@
       <c r="D8" t="n" s="0">
         <v>0.0</v>
       </c>
-      <c r="E8" t="n" s="15">
-        <v>1.0</v>
-      </c>
-      <c r="F8" t="n" s="6">
-        <v>-1.0</v>
-      </c>
-      <c r="G8" t="n" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="H8" t="n" s="6">
-        <v>-1.0</v>
-      </c>
-      <c r="I8" t="n" s="15">
-        <v>1.0</v>
-      </c>
-      <c r="J8" t="n" s="6">
-        <v>-1.0</v>
-      </c>
-      <c r="K8" t="n" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="L8" t="n" s="6">
-        <v>-1.0</v>
+      <c r="E8" t="s" s="7">
+        <v>7</v>
+      </c>
+      <c r="F8" t="s" s="7">
+        <v>7</v>
+      </c>
+      <c r="G8" t="s" s="15">
+        <v>22</v>
+      </c>
+      <c r="H8" t="s" s="6">
+        <v>23</v>
+      </c>
+      <c r="I8" t="s" s="15">
+        <v>25</v>
+      </c>
+      <c r="J8" t="s" s="6">
+        <v>23</v>
+      </c>
+      <c r="K8" t="s" s="15">
+        <v>22</v>
+      </c>
+      <c r="L8" t="s" s="6">
+        <v>23</v>
+      </c>
+      <c r="M8" t="s" s="15">
+        <v>25</v>
+      </c>
+      <c r="N8" t="s" s="6">
+        <v>23</v>
       </c>
     </row>
     <row r="9">
@@ -693,7 +760,7 @@
         <v>11.0</v>
       </c>
       <c r="B9" t="s" s="10">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C9" t="n" s="0">
         <v>2.0</v>
@@ -701,29 +768,35 @@
       <c r="D9" t="n" s="0">
         <v>0.0</v>
       </c>
-      <c r="E9" t="n" s="15">
-        <v>1.0</v>
-      </c>
-      <c r="F9" t="n" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="G9" t="n" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="H9" t="n" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="I9" t="n" s="15">
-        <v>1.0</v>
-      </c>
-      <c r="J9" t="n" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="K9" t="n" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="L9" t="n" s="5">
-        <v>0.5</v>
+      <c r="E9" t="s" s="7">
+        <v>7</v>
+      </c>
+      <c r="F9" t="s" s="7">
+        <v>7</v>
+      </c>
+      <c r="G9" t="s" s="15">
+        <v>22</v>
+      </c>
+      <c r="H9" t="s" s="5">
+        <v>22</v>
+      </c>
+      <c r="I9" t="s" s="15">
+        <v>25</v>
+      </c>
+      <c r="J9" t="s" s="5">
+        <v>25</v>
+      </c>
+      <c r="K9" t="s" s="15">
+        <v>22</v>
+      </c>
+      <c r="L9" t="s" s="5">
+        <v>22</v>
+      </c>
+      <c r="M9" t="s" s="15">
+        <v>25</v>
+      </c>
+      <c r="N9" t="s" s="5">
+        <v>25</v>
       </c>
     </row>
     <row r="10">
@@ -731,7 +804,7 @@
         <v>13.0</v>
       </c>
       <c r="B10" t="s" s="10">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C10" t="n" s="0">
         <v>0.0</v>
@@ -739,29 +812,35 @@
       <c r="D10" t="n" s="0">
         <v>0.0</v>
       </c>
-      <c r="E10" t="n" s="15">
-        <v>1.0</v>
-      </c>
-      <c r="F10" t="n" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="G10" t="n" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="H10" t="n" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="I10" t="n" s="15">
-        <v>1.0</v>
-      </c>
-      <c r="J10" t="n" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="K10" t="n" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="L10" t="n" s="5">
-        <v>0.5</v>
+      <c r="E10" t="s" s="7">
+        <v>7</v>
+      </c>
+      <c r="F10" t="s" s="7">
+        <v>7</v>
+      </c>
+      <c r="G10" t="s" s="15">
+        <v>22</v>
+      </c>
+      <c r="H10" t="s" s="5">
+        <v>22</v>
+      </c>
+      <c r="I10" t="s" s="15">
+        <v>25</v>
+      </c>
+      <c r="J10" t="s" s="5">
+        <v>25</v>
+      </c>
+      <c r="K10" t="s" s="15">
+        <v>22</v>
+      </c>
+      <c r="L10" t="s" s="5">
+        <v>22</v>
+      </c>
+      <c r="M10" t="s" s="15">
+        <v>25</v>
+      </c>
+      <c r="N10" t="s" s="5">
+        <v>25</v>
       </c>
     </row>
     <row r="11">
@@ -769,7 +848,7 @@
         <v>13.0</v>
       </c>
       <c r="B11" t="s" s="10">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C11" t="n" s="0">
         <v>1.0</v>
@@ -777,29 +856,35 @@
       <c r="D11" t="n" s="0">
         <v>0.0</v>
       </c>
-      <c r="E11" t="n" s="15">
-        <v>1.0</v>
-      </c>
-      <c r="F11" t="n" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="G11" t="n" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="H11" t="n" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="I11" t="n" s="15">
-        <v>1.0</v>
-      </c>
-      <c r="J11" t="n" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="K11" t="n" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="L11" t="n" s="5">
-        <v>1.0</v>
+      <c r="E11" t="s" s="7">
+        <v>7</v>
+      </c>
+      <c r="F11" t="s" s="7">
+        <v>7</v>
+      </c>
+      <c r="G11" t="s" s="15">
+        <v>22</v>
+      </c>
+      <c r="H11" t="s" s="5">
+        <v>22</v>
+      </c>
+      <c r="I11" t="s" s="15">
+        <v>25</v>
+      </c>
+      <c r="J11" t="s" s="5">
+        <v>22</v>
+      </c>
+      <c r="K11" t="s" s="15">
+        <v>22</v>
+      </c>
+      <c r="L11" t="s" s="5">
+        <v>22</v>
+      </c>
+      <c r="M11" t="s" s="15">
+        <v>25</v>
+      </c>
+      <c r="N11" t="s" s="5">
+        <v>22</v>
       </c>
     </row>
     <row r="12">
@@ -807,7 +892,7 @@
         <v>15.0</v>
       </c>
       <c r="B12" t="s" s="10">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C12" t="n" s="0">
         <v>1.0</v>
@@ -815,29 +900,35 @@
       <c r="D12" t="n" s="0">
         <v>3.0</v>
       </c>
-      <c r="E12" t="n" s="15">
-        <v>1.0</v>
-      </c>
-      <c r="F12" t="n" s="6">
-        <v>-1.0</v>
-      </c>
-      <c r="G12" t="n" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="H12" t="n" s="6">
-        <v>-1.0</v>
-      </c>
-      <c r="I12" t="n" s="15">
-        <v>1.0</v>
-      </c>
-      <c r="J12" t="n" s="6">
-        <v>-1.0</v>
-      </c>
-      <c r="K12" t="n" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="L12" t="n" s="6">
-        <v>-1.0</v>
+      <c r="E12" t="s" s="7">
+        <v>7</v>
+      </c>
+      <c r="F12" t="s" s="7">
+        <v>7</v>
+      </c>
+      <c r="G12" t="s" s="15">
+        <v>22</v>
+      </c>
+      <c r="H12" t="s" s="6">
+        <v>23</v>
+      </c>
+      <c r="I12" t="s" s="15">
+        <v>25</v>
+      </c>
+      <c r="J12" t="s" s="6">
+        <v>23</v>
+      </c>
+      <c r="K12" t="s" s="15">
+        <v>22</v>
+      </c>
+      <c r="L12" t="s" s="6">
+        <v>23</v>
+      </c>
+      <c r="M12" t="s" s="15">
+        <v>25</v>
+      </c>
+      <c r="N12" t="s" s="6">
+        <v>23</v>
       </c>
     </row>
     <row r="13">
@@ -845,7 +936,7 @@
         <v>17.0</v>
       </c>
       <c r="B13" t="s" s="10">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C13" t="n" s="0">
         <v>1.0</v>
@@ -853,29 +944,35 @@
       <c r="D13" t="n" s="0">
         <v>0.0</v>
       </c>
-      <c r="E13" t="n" s="15">
-        <v>1.0</v>
-      </c>
-      <c r="F13" t="n" s="6">
-        <v>-1.0</v>
-      </c>
-      <c r="G13" t="n" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="H13" t="n" s="6">
-        <v>-1.0</v>
-      </c>
-      <c r="I13" t="n" s="15">
-        <v>1.0</v>
-      </c>
-      <c r="J13" t="n" s="6">
-        <v>-1.0</v>
-      </c>
-      <c r="K13" t="n" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="L13" t="n" s="6">
-        <v>-1.0</v>
+      <c r="E13" t="s" s="7">
+        <v>7</v>
+      </c>
+      <c r="F13" t="s" s="7">
+        <v>7</v>
+      </c>
+      <c r="G13" t="s" s="15">
+        <v>22</v>
+      </c>
+      <c r="H13" t="s" s="6">
+        <v>23</v>
+      </c>
+      <c r="I13" t="s" s="15">
+        <v>25</v>
+      </c>
+      <c r="J13" t="s" s="6">
+        <v>23</v>
+      </c>
+      <c r="K13" t="s" s="15">
+        <v>22</v>
+      </c>
+      <c r="L13" t="s" s="6">
+        <v>23</v>
+      </c>
+      <c r="M13" t="s" s="15">
+        <v>25</v>
+      </c>
+      <c r="N13" t="s" s="6">
+        <v>23</v>
       </c>
     </row>
     <row r="14">
@@ -883,7 +980,7 @@
         <v>21.0</v>
       </c>
       <c r="B14" t="s" s="10">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C14" t="n" s="0">
         <v>0.0</v>
@@ -891,41 +988,49 @@
       <c r="D14" t="n" s="0">
         <v>1.0</v>
       </c>
-      <c r="E14" t="n" s="15">
-        <v>1.0</v>
-      </c>
-      <c r="F14" t="n" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="G14" t="n" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="H14" t="n" s="5">
-        <v>0.5833333134651184</v>
-      </c>
-      <c r="I14" t="n" s="15">
-        <v>1.0</v>
-      </c>
-      <c r="J14" t="n" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="K14" t="n" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="L14" t="n" s="5">
-        <v>0.5833333134651184</v>
+      <c r="E14" t="s" s="7">
+        <v>7</v>
+      </c>
+      <c r="F14" t="s" s="7">
+        <v>7</v>
+      </c>
+      <c r="G14" t="s" s="15">
+        <v>22</v>
+      </c>
+      <c r="H14" t="s" s="5">
+        <v>22</v>
+      </c>
+      <c r="I14" t="s" s="15">
+        <v>25</v>
+      </c>
+      <c r="J14" t="s" s="5">
+        <v>26</v>
+      </c>
+      <c r="K14" t="s" s="15">
+        <v>22</v>
+      </c>
+      <c r="L14" t="s" s="5">
+        <v>22</v>
+      </c>
+      <c r="M14" t="s" s="15">
+        <v>25</v>
+      </c>
+      <c r="N14" t="s" s="5">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="10">
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="I1:J1"/>
     <mergeCell ref="K1:L1"/>
+    <mergeCell ref="M1:N1"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
